--- a/Optimisation Approfondie/TP/ResultatsTP1.xlsx
+++ b/Optimisation Approfondie/TP/ResultatsTP1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univlillefr-my.sharepoint.com/personal/charles_vin_etu_univ-lille_fr/Documents/L3/S6/Optimisation Approfondie/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_A2299740A9C0A6A9642FDFE54A15A8A857E5C91A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF6C8897-8BCF-428D-8949-A01CFFA5EEDC}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_A2299740A9C0A6A9642FDFE54A15A8A857E5C91A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951161BE-1AE2-4CD5-BC82-3D202C3F60A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12804" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="11520" windowHeight="12504" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>NOM :</t>
   </si>
@@ -238,13 +238,19 @@
     <t>Section dorée échous a trouver l'approché du pas optimal contraitement à Armijo</t>
   </si>
   <si>
-    <t>Comment faire pour le gradent conjugé c'est pas la bonne forme avec le y^4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grad(0,0) SDP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment transformer la fonction en A ? </t>
+    <t>(1/5, 1/2)</t>
+  </si>
+  <si>
+    <t>2/(10+2) = 1/6</t>
+  </si>
+  <si>
+    <t>Section dorée ne converge pas</t>
+  </si>
+  <si>
+    <t>Toujours le gradient conjugue</t>
+  </si>
+  <si>
+    <t>Le pas fixe optimal</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,6 +273,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -535,22 +547,40 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A50:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -935,8 +965,8 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31">
-        <v>44563</v>
+      <c r="C6" s="42">
+        <v>0.25</v>
       </c>
       <c r="D6"/>
     </row>
@@ -1185,10 +1215,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="8">
-        <v>-0.66666409999999998</v>
+        <v>-0.66662600000000005</v>
       </c>
       <c r="D31" s="8">
         <v>-0.3333333</v>
@@ -1198,7 +1228,7 @@
       <c r="A32" s="15"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10">
-        <v>0.33332820000000002</v>
+        <v>0.33331300000000003</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -1220,17 +1250,17 @@
         <v>10000</v>
       </c>
       <c r="C34" s="12">
-        <v>-8.7845500000000007E-2</v>
+        <v>-0.61057810000000001</v>
       </c>
       <c r="D34" s="12">
-        <v>-8.0471799999999996E-2</v>
+        <v>-0.3238973</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10">
-        <v>4.0968000000000003E-3</v>
+        <v>0.38941150000000002</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -1249,10 +1279,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37" s="8">
-        <v>-0.66666409999999998</v>
+        <v>-0.66662600000000005</v>
       </c>
       <c r="D37" s="12">
         <v>-0.3333333</v>
@@ -1262,7 +1292,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="19"/>
       <c r="C38" s="10">
-        <v>0.33332820000000002</v>
+        <v>0.33331300000000003</v>
       </c>
       <c r="D38" s="20"/>
     </row>
@@ -1329,32 +1359,32 @@
       <c r="B45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="35"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="22"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49"/>
@@ -1483,20 +1513,20 @@
       <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" t="s">
-        <v>50</v>
-      </c>
+      <c r="C69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" t="s">
-        <v>51</v>
-      </c>
+      <c r="C70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71"/>
@@ -1520,14 +1550,22 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="B73" s="8">
+        <v>29</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.1999937</v>
+      </c>
+      <c r="D73" s="8">
+        <v>-12.45</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="10">
+        <v>0.50001169999999995</v>
+      </c>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,14 +1582,22 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C76" s="12">
+        <v>0.1889296</v>
+      </c>
+      <c r="D76" s="12">
+        <v>-12.43938</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="10">
+        <v>0.39996549999999997</v>
+      </c>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,14 +1614,22 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="18"/>
+      <c r="B79" s="17">
+        <v>17</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.19999549999999999</v>
+      </c>
+      <c r="D79" s="18">
+        <v>-12.45</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="19"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="10">
+        <v>0.47930590000000001</v>
+      </c>
       <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,20 +1643,26 @@
       <c r="D81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+      <c r="B82" s="12">
+        <v>2</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D82" s="12">
+        <v>-12.45</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="C83" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,35 +1671,44 @@
       <c r="C84"/>
       <c r="D84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="35"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="D87" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
